--- a/Banco de Dados/Modelagens/Modelagem_MedGroup-Fisico.xlsx
+++ b/Banco de Dados/Modelagens/Modelagem_MedGroup-Fisico.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
   <si>
     <t xml:space="preserve">clinica</t>
   </si>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">662.171.718-05</t>
   </si>
   <si>
-    <t xml:space="preserve">Rua Frederico Consolo, São Paulo - SPRua Joaquim Mendes de Aguiar</t>
+    <t xml:space="preserve">Rua Joaquim Mendes de Aguiar, São Paulo - SP</t>
   </si>
   <si>
     <t xml:space="preserve">Angiologia</t>
@@ -412,16 +412,13 @@
     <t xml:space="preserve">nomeTipoUsuario</t>
   </si>
   <si>
-    <t xml:space="preserve">comum</t>
-  </si>
-  <si>
     <t xml:space="preserve">situacao</t>
   </si>
   <si>
+    <t xml:space="preserve">nomeSituacao</t>
+  </si>
+  <si>
     <t xml:space="preserve">administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nomeSituacao</t>
   </si>
   <si>
     <t xml:space="preserve">AGENDADA</t>
@@ -892,8 +889,8 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -910,7 +907,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="57.9"/>
@@ -1161,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>50</v>
@@ -1255,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>68</v>
@@ -1358,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>86</v>
@@ -1481,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>101</v>
@@ -1768,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>130</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>131</v>
       </c>
       <c r="E27" s="32"/>
     </row>
@@ -1780,21 +1777,27 @@
         <v>2</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
